--- a/backend/automation-engine/src/test/resources/testData/Test-Data.xlsx
+++ b/backend/automation-engine/src/test/resources/testData/Test-Data.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A01836-5F07-49D3-83B3-B26967842901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Test_Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Test_Data" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13" count="102">
   <si>
     <t>Test-Case-Name</t>
   </si>
@@ -37,18 +33,47 @@
   <si>
     <t xml:space="preserve">Date </t>
   </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>3.13932938298E11</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Column 8</t>
+  </si>
+  <si>
+    <t>Test1daldjla</t>
+  </si>
+  <si>
+    <t>3.13932938298E11akhda</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,44 +92,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office Theme 2007 - 2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -128,82 +190,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office Theme 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office Theme 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -235,20 +237,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -260,7 +258,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -281,16 +279,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -299,23 +288,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -370,50 +357,1111 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="21.3516"/>
+    <col min="2" max="2" customWidth="true" style="1" width="20.1719"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.3516"/>
+    <col min="4" max="7" customWidth="true" style="1" width="8.85156"/>
+    <col min="8" max="16384" customWidth="true" style="1" width="8.85156"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/backend/automation-engine/src/test/resources/testData/Test-Data.xlsx
+++ b/backend/automation-engine/src/test/resources/testData/Test-Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13" count="174">
   <si>
     <t>Test-Case-Name</t>
   </si>
@@ -1295,6 +1295,9 @@
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H3" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="4" t="s">
@@ -1318,6 +1321,9 @@
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H4" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="4" t="s">
@@ -1341,6 +1347,9 @@
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H5" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -1364,6 +1373,9 @@
       <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H6" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="4" t="s">
@@ -1387,6 +1399,9 @@
       <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H7" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -1410,6 +1425,9 @@
       <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H8" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="4" t="s">
@@ -1431,6 +1449,9 @@
         <v>9</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s" s="1">
         <v>9</v>
       </c>
     </row>
